--- a/med_sheet.xlsx
+++ b/med_sheet.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad/Documents/projects/Guardian_NR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad/Desktop/Guardian_NR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEB9F94-52CD-F946-9151-F5B200C8339D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2664C1-AD2D-7845-80EB-E4BBC4447663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="med_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="214">
   <si>
     <t>Drug Name</t>
   </si>
@@ -647,13 +647,28 @@
   </si>
   <si>
     <t>SDZ-HYDROMORPHONE IM INJ</t>
+  </si>
+  <si>
+    <t>4.5MG</t>
+  </si>
+  <si>
+    <t>TEVA-BUPRENORPHINE/NALOXONE</t>
+  </si>
+  <si>
+    <t>2/0.5MG</t>
+  </si>
+  <si>
+    <t>APO-AMPHETAMINE XR</t>
+  </si>
+  <si>
+    <t>ADDERALL XR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +689,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -743,7 +764,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220:F220"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1081,7 @@
     <col min="2" max="2" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1157,44 +1178,50 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2248809</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>663220111026</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2248812</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>663220111057</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>2249499</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2245345</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>55873030258</v>
-      </c>
-      <c r="F8" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2245346</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1202,136 +1229,136 @@
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9">
-        <v>55873030500</v>
-      </c>
-      <c r="F9" s="2">
-        <v>30</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>865397</v>
+        <v>2245345</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>55873030258</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2245346</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>55873030500</v>
+      </c>
+      <c r="F11" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
+        <v>865397</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
         <v>865400</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
         <v>771313000253</v>
       </c>
-      <c r="F11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2177161</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2244638</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>771313157285</v>
-      </c>
       <c r="F13" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
+      <c r="A14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>2177889</v>
+        <v>2243611</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14">
-        <v>771313078801</v>
+        <v>771313140010</v>
       </c>
       <c r="F14" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
+      <c r="A15" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="B15" s="2">
-        <v>2177897</v>
+        <v>2445514</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E15">
-        <v>771313078702</v>
+        <v>771313204095</v>
       </c>
       <c r="F15" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
+      <c r="A16" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="B16" s="2">
-        <v>2364123</v>
+        <v>2445522</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>771313195836</v>
+        <v>771313204101</v>
       </c>
       <c r="F16" s="2">
         <v>100</v>
@@ -1339,84 +1366,84 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>2476657</v>
+        <v>2177161</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>655740</v>
+        <v>2244638</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18">
-        <v>771313005487</v>
+        <v>771313157285</v>
       </c>
       <c r="F18" s="2">
-        <v>500</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>655759</v>
+        <v>2177889</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E19">
-        <v>771313258241</v>
+        <v>771313078801</v>
       </c>
       <c r="F19" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>655759</v>
+        <v>2177897</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20">
-        <v>771313005524</v>
+        <v>771313078702</v>
       </c>
       <c r="F20" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
-        <v>655767</v>
+        <v>2364123</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -1424,84 +1451,96 @@
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E21">
+        <v>771313195836</v>
+      </c>
+      <c r="F21" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
-        <v>2533669</v>
+        <v>2476657</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>771313253949</v>
-      </c>
-      <c r="F22" s="2">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2">
-        <v>2249324</v>
+        <v>655740</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E23">
-        <v>771313162838</v>
+        <v>771313005487</v>
       </c>
       <c r="F23" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>2330377</v>
+        <v>655759</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E24">
+        <v>771313258241</v>
+      </c>
+      <c r="F24" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2">
-        <v>2452731</v>
+        <v>655759</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E25">
+        <v>771313005524</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
-        <v>2452758</v>
+        <v>655767</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
@@ -1509,10 +1548,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2">
-        <v>402680</v>
+        <v>2533669</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>27</v>
@@ -1521,81 +1560,69 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>771313006545</v>
+        <v>771313253949</v>
       </c>
       <c r="F27" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2">
-        <v>402737</v>
+        <v>2249324</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E28">
-        <v>771313006606</v>
+        <v>771313162838</v>
       </c>
       <c r="F28" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
-        <v>402745</v>
+        <v>2330377</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E29">
-        <v>771313006576</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
-        <v>2306530</v>
+        <v>2452731</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E30">
-        <v>771313221757</v>
-      </c>
-      <c r="F30" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
-        <v>2366746</v>
+        <v>2452758</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
@@ -1603,10 +1630,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
-        <v>2366754</v>
+        <v>402680</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>27</v>
@@ -1614,81 +1641,93 @@
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E32">
+        <v>771313006545</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1000</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
-        <v>2366762</v>
+        <v>402737</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>771313221740</v>
+        <v>771313006606</v>
       </c>
       <c r="F33" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
-        <v>2324628</v>
+        <v>402745</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E34">
+        <v>771313006576</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
-        <v>2426153</v>
+        <v>2306530</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E35">
+        <v>771313221757</v>
+      </c>
+      <c r="F35" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2">
-        <v>2336790</v>
+        <v>2366746</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E36">
-        <v>771313256360</v>
-      </c>
-      <c r="F36" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
-        <v>2434946</v>
+        <v>2366754</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
@@ -1696,36 +1735,36 @@
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E37">
-        <v>771313237703</v>
-      </c>
-      <c r="F37" s="2">
-        <v>30</v>
-      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2">
-        <v>2436159</v>
+        <v>2366762</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E38">
+        <v>771313221740</v>
+      </c>
+      <c r="F38" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2">
-        <v>2041421</v>
+        <v>2324628</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
@@ -1733,159 +1772,141 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
-        <v>50024</v>
+        <v>2426153</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40">
-        <v>68625100253</v>
-      </c>
-      <c r="F40" s="2">
-        <v>500</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2">
-        <v>380571</v>
+        <v>2336790</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E41" s="7">
-        <v>68625100352</v>
+        <v>771313256360</v>
       </c>
       <c r="F41" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2">
-        <v>2479672</v>
+        <v>2434946</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="7">
-        <v>886965005492</v>
+        <v>771313237703</v>
       </c>
       <c r="F42" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2">
-        <v>2439050</v>
+        <v>2436159</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E43">
-        <v>886965002392</v>
-      </c>
-      <c r="F43" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2">
-        <v>2277131</v>
+        <v>2041421</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44">
-        <v>60025101151</v>
-      </c>
-      <c r="F44" s="2">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2">
-        <v>2277158</v>
+        <v>50024</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E45">
-        <v>60025101205</v>
+        <v>68625100253</v>
       </c>
       <c r="F45" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2">
-        <v>2277166</v>
+        <v>380571</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E46">
-        <v>60025101007</v>
+        <v>68625100352</v>
       </c>
       <c r="F46" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2">
-        <v>2277174</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>41</v>
+        <v>2479672</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E47">
-        <v>60025101304</v>
+        <v>886965005492</v>
       </c>
       <c r="F47" s="2">
         <v>100</v>
@@ -1893,19 +1914,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2">
-        <v>2277182</v>
+        <v>2439050</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>60025101403</v>
+        <v>886965002392</v>
       </c>
       <c r="F48" s="2">
         <v>100</v>
@@ -1916,13 +1937,16 @@
         <v>61</v>
       </c>
       <c r="B49" s="2">
-        <v>2277204</v>
+        <v>2277131</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="E49">
+        <v>60025101151</v>
       </c>
       <c r="F49" s="2">
         <v>100</v>
@@ -1933,188 +1957,216 @@
         <v>61</v>
       </c>
       <c r="B50" s="2">
-        <v>2277212</v>
+        <v>2277158</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="7"/>
+      <c r="E50" s="7">
+        <v>60025101205</v>
+      </c>
       <c r="F50" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2">
-        <v>2450771</v>
+        <v>2277166</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E51" s="7">
-        <v>60025418891</v>
+        <v>60025101007</v>
       </c>
       <c r="F51" s="2">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2">
-        <v>2341220</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>68</v>
+        <v>2277174</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="E52" s="7">
+        <v>60025101304</v>
+      </c>
+      <c r="F52" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2">
-        <v>2341174</v>
+        <v>2277182</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="E53" s="7">
+        <v>60025101403</v>
+      </c>
+      <c r="F53" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2">
-        <v>535230</v>
+        <v>2277204</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="7">
-        <v>64589001889</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E54" s="7"/>
       <c r="F54" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2">
-        <v>2172917</v>
+        <v>2277212</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E55" s="7"/>
+      <c r="F55" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B56" s="2">
-        <v>548375</v>
+        <v>2450771</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="E56" s="7">
+        <v>60025418891</v>
+      </c>
+      <c r="F56" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2">
-        <v>2256193</v>
+        <v>2341220</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="E57" s="7">
+        <v>60025666605</v>
+      </c>
+      <c r="F57" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2">
-        <v>618454</v>
+        <v>2341174</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2">
-        <v>860689</v>
+        <v>535230</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E59" s="7">
+        <v>64589001889</v>
+      </c>
+      <c r="F59" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2">
-        <v>860697</v>
+        <v>2172917</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2">
-        <v>860700</v>
+        <v>548375</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>33</v>
@@ -2123,274 +2175,254 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2">
-        <v>2247732</v>
+        <v>2256193</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="7">
-        <v>62773610558</v>
-      </c>
-      <c r="F62" s="2">
-        <v>100</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2">
-        <v>2247733</v>
+        <v>618454</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="7">
-        <v>62773610565</v>
-      </c>
-      <c r="F63" s="2">
-        <v>100</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2">
-        <v>2247734</v>
+        <v>860689</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="7">
-        <v>62773610572</v>
-      </c>
-      <c r="F64" s="2">
-        <v>100</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2">
-        <v>2250241</v>
+        <v>860697</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="7">
-        <v>62773610824</v>
-      </c>
-      <c r="F65" s="2">
-        <v>100</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2">
-        <v>2224577</v>
+        <v>860700</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2">
-        <v>2230769</v>
+        <v>2247732</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="E67" s="7">
-        <v>775848181005</v>
+        <v>62773610558</v>
       </c>
       <c r="F67" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2">
-        <v>29246</v>
+        <v>2247733</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E68" s="7">
+        <v>62773610565</v>
+      </c>
+      <c r="F68" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2">
-        <v>2138018</v>
+        <v>2247734</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="7"/>
+      <c r="E69" s="7">
+        <v>62773610572</v>
+      </c>
+      <c r="F69" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2">
-        <v>30783</v>
+        <v>2250241</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E70" s="7">
+        <v>62773610824</v>
+      </c>
+      <c r="F70" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2">
-        <v>1924516</v>
+        <v>2224577</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2">
-        <v>2443236</v>
+        <v>2230769</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E72" s="7">
-        <v>660933002535</v>
+        <v>775848181005</v>
       </c>
       <c r="F72" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2">
-        <v>362158</v>
+        <v>29246</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="7">
-        <v>660933002603</v>
-      </c>
-      <c r="F73" s="2">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2">
-        <v>405329</v>
+        <v>2138018</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="7">
-        <v>660933002597</v>
-      </c>
-      <c r="F74" s="2">
-        <v>100</v>
-      </c>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2">
-        <v>405337</v>
+        <v>30783</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="7">
-        <v>660933002610</v>
-      </c>
-      <c r="F75" s="2">
-        <v>100</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2">
-        <v>125083</v>
+        <v>1924516</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="7">
-        <v>60025405952</v>
+        <v>628791004542</v>
       </c>
       <c r="F76" s="2">
         <v>100</v>
@@ -2398,19 +2430,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2">
-        <v>125121</v>
+        <v>2443236</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E77" s="7">
-        <v>60025405976</v>
+        <v>660933002535</v>
       </c>
       <c r="F77" s="2">
         <v>100</v>
@@ -2418,19 +2450,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2">
-        <v>705438</v>
+        <v>362158</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E78" s="7">
-        <v>60025405938</v>
+        <v>660933002603</v>
       </c>
       <c r="F78" s="2">
         <v>100</v>
@@ -2438,220 +2470,223 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2">
-        <v>786543</v>
+        <v>405329</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="7"/>
+      <c r="E79" s="7">
+        <v>660933002597</v>
+      </c>
+      <c r="F79" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2">
-        <v>2244080</v>
+        <v>405337</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E80" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E80" s="7">
+        <v>660933002610</v>
+      </c>
+      <c r="F80" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2">
-        <v>614491</v>
+        <v>125083</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E81" s="7">
+        <v>60025405952</v>
+      </c>
+      <c r="F81" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2">
-        <v>226327</v>
+        <v>125121</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>60025405976</v>
+      </c>
+      <c r="F82" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2">
-        <v>176206</v>
+        <v>705438</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>60025405938</v>
+      </c>
+      <c r="F83" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2">
-        <v>176192</v>
+        <v>786543</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2">
-        <v>521698</v>
+        <v>2244080</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E85">
-        <v>660933001866</v>
-      </c>
-      <c r="F85" s="2">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2">
-        <v>2470292</v>
+        <v>614491</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E86">
-        <v>60025422034</v>
-      </c>
-      <c r="F86" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2">
-        <v>2470306</v>
+        <v>226327</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E87">
-        <v>60025422041</v>
-      </c>
-      <c r="F87" s="2">
-        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2">
-        <v>2470314</v>
+        <v>176206</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E88">
-        <v>60025422058</v>
-      </c>
-      <c r="F88" s="2">
-        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2">
-        <v>2470322</v>
+        <v>176192</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E89">
-        <v>60025422065</v>
-      </c>
-      <c r="F89" s="2">
-        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2">
-        <v>1916580</v>
+        <v>521698</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="E90">
+        <v>660933001866</v>
+      </c>
+      <c r="F90" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2">
-        <v>2125323</v>
+        <v>2470292</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E91">
-        <v>60025409523</v>
+        <v>60025422034</v>
       </c>
       <c r="F91" s="2">
         <v>60</v>
@@ -2659,19 +2694,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2">
-        <v>2125331</v>
+        <v>2470306</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E92">
-        <v>60025409530</v>
+        <v>60025422041</v>
       </c>
       <c r="F92" s="2">
         <v>60</v>
@@ -2679,19 +2714,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2">
-        <v>2125366</v>
+        <v>2470314</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E93">
-        <v>60025409547</v>
+        <v>60025422058</v>
       </c>
       <c r="F93" s="2">
         <v>60</v>
@@ -2699,19 +2734,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2">
-        <v>2125382</v>
+        <v>2470322</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E94">
-        <v>60025409561</v>
+        <v>60025422065</v>
       </c>
       <c r="F94" s="2">
         <v>60</v>
@@ -2719,22 +2754,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2">
-        <v>2125390</v>
+        <v>1916580</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E95">
-        <v>60025409578</v>
-      </c>
-      <c r="F95" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2742,16 +2771,16 @@
         <v>119</v>
       </c>
       <c r="B96" s="2">
-        <v>2359510</v>
+        <v>2125323</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E96">
-        <v>60025410598</v>
+        <v>60025409523</v>
       </c>
       <c r="F96" s="2">
         <v>60</v>
@@ -2759,161 +2788,173 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2">
-        <v>2388308</v>
+        <v>2125331</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E97">
-        <v>622082288376</v>
+        <v>60025409530</v>
       </c>
       <c r="F97" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2">
-        <v>2400111</v>
+        <v>2125366</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="E98">
+        <v>60025409547</v>
+      </c>
+      <c r="F98" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2">
-        <v>2184435</v>
+        <v>2125382</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E99">
-        <v>55873100104</v>
+        <v>60025409561</v>
       </c>
       <c r="F99" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2">
-        <v>2184443</v>
+        <v>2125390</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E100">
-        <v>55873100111</v>
+        <v>60025409578</v>
       </c>
       <c r="F100" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2">
-        <v>2184451</v>
+        <v>2359502</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E101">
-        <v>55873100128</v>
+        <v>60025410581</v>
       </c>
       <c r="F101" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2">
-        <v>2242163</v>
+        <v>2359510</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="E102">
+        <v>60025410598</v>
+      </c>
+      <c r="F102" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2">
-        <v>115630</v>
+        <v>2388308</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>622082288376</v>
+      </c>
+      <c r="F103" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2">
-        <v>36323</v>
+        <v>2400111</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E104">
-        <v>55860010157</v>
-      </c>
-      <c r="F104" s="2">
-        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2">
-        <v>2410745</v>
+        <v>2184435</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E105">
-        <v>660933002313</v>
+        <v>55873100104</v>
       </c>
       <c r="F105" s="2">
         <v>100</v>
@@ -2921,19 +2962,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2">
-        <v>2410753</v>
+        <v>2184443</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E106">
-        <v>660933002320</v>
+        <v>55873100111</v>
       </c>
       <c r="F106" s="2">
         <v>100</v>
@@ -2941,24 +2982,30 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2">
-        <v>2410761</v>
+        <v>2184451</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="E107">
+        <v>55873100128</v>
+      </c>
+      <c r="F107" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2">
-        <v>2019930</v>
+        <v>2242163</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
@@ -2967,237 +3014,243 @@
         <v>33</v>
       </c>
       <c r="E108">
-        <v>871547000859</v>
+        <v>55873100098</v>
       </c>
       <c r="F108" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2">
-        <v>2019949</v>
+        <v>115630</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E109">
-        <v>871547000897</v>
-      </c>
-      <c r="F109" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2">
-        <v>2019957</v>
+        <v>36323</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E110">
-        <v>871547000910</v>
+        <v>55860010157</v>
       </c>
       <c r="F110" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2">
-        <v>2019965</v>
+        <v>2410745</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="E111">
+        <v>660933002313</v>
+      </c>
+      <c r="F111" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2">
-        <v>2177749</v>
+        <v>2410753</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E112">
-        <v>871547000873</v>
+        <v>660933002320</v>
       </c>
       <c r="F112" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2">
-        <v>2480859</v>
+        <v>2410761</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E113">
-        <v>697359005734</v>
-      </c>
-      <c r="F113" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2">
-        <v>2247699</v>
+        <v>2480859</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E114">
+        <v>697359005734</v>
+      </c>
+      <c r="F114" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2">
-        <v>2247700</v>
+        <v>2019930</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E115">
-        <v>628791004627</v>
+        <v>871547000859</v>
       </c>
       <c r="F115" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2">
-        <v>2394618</v>
+        <v>2019949</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="E116">
-        <v>30406000304</v>
+        <v>871547000897</v>
       </c>
       <c r="F116" s="2">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2">
-        <v>511528</v>
+        <v>2019957</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E117" s="7">
-        <v>660933001712</v>
+        <v>871547000910</v>
       </c>
       <c r="F117" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2">
-        <v>2474980</v>
+        <v>2019965</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2">
-        <v>2137534</v>
+        <v>2177749</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="E119">
+        <v>871547000873</v>
+      </c>
+      <c r="F119" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2">
-        <v>2049481</v>
+        <v>2247699</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2">
-        <v>2378272</v>
+        <v>2247700</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E121">
-        <v>628791006294</v>
+        <v>628791004627</v>
       </c>
       <c r="F121" s="2">
         <v>100</v>
@@ -3205,135 +3258,129 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2">
-        <v>2378272</v>
+        <v>2394618</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>8</v>
+        <v>95</v>
+      </c>
+      <c r="E122">
+        <v>30406000304</v>
+      </c>
+      <c r="F122" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2">
-        <v>2372533</v>
+        <v>511528</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E123">
+        <v>660933001712</v>
+      </c>
+      <c r="F123" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2">
-        <v>2372568</v>
+        <v>2474980</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B125" s="2">
-        <v>2372797</v>
+        <v>2137534</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E125">
-        <v>60025409844</v>
-      </c>
-      <c r="F125" s="2">
-        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2">
-        <v>2324253</v>
+        <v>2049481</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E126">
-        <v>625972019869</v>
-      </c>
-      <c r="F126" s="2">
-        <v>500</v>
-      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>145</v>
+      <c r="A127" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B127" s="2">
-        <v>2424851</v>
+        <v>2378272</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E127">
-        <v>57606111340</v>
+        <v>628791006294</v>
       </c>
       <c r="F127" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>145</v>
+      <c r="A128" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B128" s="2">
-        <v>2424878</v>
+        <v>2378272</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E128">
-        <v>57606111357</v>
-      </c>
-      <c r="F128" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2">
-        <v>2048701</v>
+        <v>2372533</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>8</v>
@@ -3341,139 +3388,127 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2">
-        <v>2048728</v>
+        <v>2372568</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E130">
-        <v>57606872821</v>
-      </c>
-      <c r="F130" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2">
-        <v>2048736</v>
+        <v>2372797</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E131">
-        <v>57606873620</v>
+        <v>60025409844</v>
       </c>
       <c r="F131" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2">
-        <v>2207818</v>
+        <v>2324253</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E132">
-        <v>57606781826</v>
+        <v>625972019869</v>
       </c>
       <c r="F132" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>147</v>
+      <c r="A133" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B133" s="2">
-        <v>2207818</v>
+        <v>2424851</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E133">
-        <v>57606781840</v>
+        <v>57606111340</v>
       </c>
       <c r="F133" s="2">
-        <v>500</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>148</v>
+      <c r="A134" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B134" s="2">
-        <v>885401</v>
+        <v>2424878</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E134">
-        <v>57606540140</v>
+        <v>57606111357</v>
       </c>
       <c r="F134" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2">
-        <v>885428</v>
+        <v>2048701</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E135">
-        <v>57606542847</v>
-      </c>
-      <c r="F135" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2">
-        <v>885436</v>
+        <v>2048728</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E136">
-        <v>57606543646</v>
+        <v>57606872821</v>
       </c>
       <c r="F136" s="2">
         <v>100</v>
@@ -3481,19 +3516,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2">
-        <v>885444</v>
+        <v>2048736</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E137">
-        <v>57606544445</v>
+        <v>57606873620</v>
       </c>
       <c r="F137" s="2">
         <v>100</v>
@@ -3501,24 +3536,30 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2">
-        <v>1916386</v>
+        <v>2207818</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
+      </c>
+      <c r="E138">
+        <v>57606781826</v>
+      </c>
+      <c r="F138" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2">
-        <v>728187</v>
+        <v>2207818</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>23</v>
@@ -3527,27 +3568,27 @@
         <v>8</v>
       </c>
       <c r="E139">
-        <v>57606818720</v>
+        <v>57606781840</v>
       </c>
       <c r="F139" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2">
-        <v>728195</v>
+        <v>885401</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E140">
-        <v>57606819529</v>
+        <v>57606540140</v>
       </c>
       <c r="F140" s="2">
         <v>100</v>
@@ -3555,19 +3596,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2">
-        <v>728209</v>
+        <v>885428</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E141">
-        <v>57606820921</v>
+        <v>57606542847</v>
       </c>
       <c r="F141" s="2">
         <v>100</v>
@@ -3575,67 +3616,73 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2">
-        <v>584991</v>
+        <v>885436</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E142">
+        <v>57606543646</v>
+      </c>
+      <c r="F142" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2">
-        <v>2380897</v>
+        <v>885444</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="E143">
+        <v>57606544445</v>
+      </c>
+      <c r="F143" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2">
-        <v>2380900</v>
+        <v>1916386</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E144">
-        <v>57606022479</v>
-      </c>
-      <c r="F144" s="2">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2">
-        <v>2380919</v>
+        <v>728187</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E145" s="7">
-        <v>57606022493</v>
+        <v>57606818720</v>
       </c>
       <c r="F145" s="2">
         <v>100</v>
@@ -3643,45 +3690,50 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2">
-        <v>2319977</v>
+        <v>728195</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E146" s="7"/>
+      <c r="E146" s="7">
+        <v>57606819529</v>
+      </c>
+      <c r="F146" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2">
-        <v>2436175</v>
+        <v>728209</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E147" s="7">
-        <v>57606025876</v>
+        <v>57606820921</v>
       </c>
       <c r="F147" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2">
-        <v>2436183</v>
+        <v>584991</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>27</v>
@@ -3693,199 +3745,182 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2">
-        <v>2299216</v>
+        <v>2380897</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149">
-        <v>60752140157</v>
-      </c>
-      <c r="F149" s="2">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>608882</v>
+        <v>2380900</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E150">
-        <v>64589001599</v>
+        <v>57606022479</v>
       </c>
       <c r="F150" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2">
-        <v>653233</v>
+        <v>2380919</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E151">
-        <v>64589002138</v>
+        <v>57606022493</v>
       </c>
       <c r="F151" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2">
-        <v>653233</v>
+        <v>2319977</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E152">
-        <v>64589001926</v>
-      </c>
-      <c r="F152" s="2">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B153" s="2">
-        <v>608238</v>
+        <v>2436175</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E153">
-        <v>64589000936</v>
+        <v>57606025876</v>
       </c>
       <c r="F153" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2">
-        <v>608181</v>
+        <v>2436183</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E154" s="7">
-        <v>64589002305</v>
-      </c>
-      <c r="F154" s="2">
-        <v>100</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E154" s="7"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B155" s="2">
-        <v>608203</v>
+        <v>2299216</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E155" s="7">
-        <v>64589002299</v>
+        <v>60752140157</v>
       </c>
       <c r="F155" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B156" s="2">
-        <v>604453</v>
+        <v>608882</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E156" s="7">
-        <v>660933002047</v>
+        <v>64589001599</v>
       </c>
       <c r="F156" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>604461</v>
+        <v>653233</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E157">
-        <v>660933002054</v>
+        <v>64589002138</v>
       </c>
       <c r="F157" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B158" s="2">
-        <v>2457288</v>
+        <v>653233</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E158">
-        <v>57513217920</v>
+        <v>64589001926</v>
       </c>
       <c r="F158" s="2">
         <v>100</v>
@@ -3893,19 +3928,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>2457296</v>
+        <v>608238</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E159">
-        <v>57513217937</v>
+        <v>64589000936</v>
       </c>
       <c r="F159" s="2">
         <v>100</v>
@@ -3913,19 +3948,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>2457318</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>42</v>
+        <v>608181</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E160">
-        <v>57513217951</v>
+        <v>64589002305</v>
       </c>
       <c r="F160" s="2">
         <v>100</v>
@@ -3933,19 +3968,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>2457326</v>
+        <v>608203</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E161">
-        <v>57513217944</v>
+        <v>64589002299</v>
       </c>
       <c r="F161" s="2">
         <v>100</v>
@@ -3953,33 +3988,39 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>2457334</v>
+        <v>604453</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="E162">
+        <v>660933002047</v>
+      </c>
+      <c r="F162" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B163" s="2">
-        <v>2457342</v>
+        <v>604461</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E163">
-        <v>57513217975</v>
+        <v>660933002054</v>
       </c>
       <c r="F163" s="2">
         <v>100</v>
@@ -3990,16 +4031,16 @@
         <v>165</v>
       </c>
       <c r="B164" s="2">
-        <v>2457334</v>
+        <v>2457288</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E164">
-        <v>57513217968</v>
+        <v>57513217920</v>
       </c>
       <c r="F164" s="2">
         <v>100</v>
@@ -4007,251 +4048,258 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B165" s="2">
-        <v>2327120</v>
+        <v>2457296</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E165">
-        <v>57513141904</v>
+        <v>57513217937</v>
       </c>
       <c r="F165" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2">
-        <v>2327147</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>170</v>
+        <v>2457318</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
+      </c>
+      <c r="E166">
+        <v>57513217951</v>
+      </c>
+      <c r="F166" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>2145901</v>
+        <v>2457326</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="E167">
-        <v>57513040214</v>
+        <v>57513217944</v>
       </c>
       <c r="F167" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B168" s="2">
-        <v>2438704</v>
+        <v>2457334</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>95</v>
+        <v>33</v>
+      </c>
+      <c r="E168">
+        <v>57513217968</v>
+      </c>
+      <c r="F168" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B169" s="2">
-        <v>2244790</v>
+        <v>2457334</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B170" s="2">
-        <v>2307898</v>
+        <v>2457342</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E170">
+        <v>57513217975</v>
+      </c>
+      <c r="F170" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B171" s="2">
-        <v>443948</v>
+        <v>2327120</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="E171">
+        <v>57513141904</v>
+      </c>
+      <c r="F171" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B172" s="2">
-        <v>789739</v>
+        <v>2327147</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="B173" s="2">
-        <v>594644</v>
+        <v>2145901</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="E173">
-        <v>628791004771</v>
+        <v>57513040214</v>
       </c>
       <c r="F173" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B174" s="2">
-        <v>594652</v>
+        <v>2438704</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174">
-        <v>628791004764</v>
-      </c>
-      <c r="F174" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>2370433</v>
+        <v>2244790</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E175" s="7">
-        <v>60752000789</v>
-      </c>
-      <c r="F175" s="2">
-        <v>30</v>
-      </c>
+      <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B176" s="2">
-        <v>2391678</v>
+        <v>2244791</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E176">
+        <v>57513213618</v>
+      </c>
+      <c r="F176" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B177" s="2">
-        <v>2295695</v>
+        <v>2307898</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E177">
-        <v>882936009353</v>
-      </c>
-      <c r="F177" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B178" s="2">
-        <v>2295709</v>
+        <v>443948</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E178">
-        <v>882936009360</v>
-      </c>
-      <c r="F178" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B179" s="2">
-        <v>2339617</v>
+        <v>789739</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>8</v>
@@ -4259,59 +4307,59 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B180" s="2">
-        <v>2421186</v>
+        <v>594644</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E180" s="7">
-        <v>63691073333</v>
+        <v>628791004771</v>
       </c>
       <c r="F180" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B181" s="2">
-        <v>2463792</v>
+        <v>594652</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E181" s="7">
-        <v>63691082793</v>
+        <v>628791004764</v>
       </c>
       <c r="F181" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B182" s="2">
-        <v>2463806</v>
+        <v>2370433</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E182" s="7">
-        <v>63691082762</v>
+        <v>60752000789</v>
       </c>
       <c r="F182" s="2">
         <v>30</v>
@@ -4319,500 +4367,507 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B183" s="2">
-        <v>2496003</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>94</v>
+        <v>2391678</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E183" s="7">
-        <v>63691100329</v>
-      </c>
-      <c r="F183" s="2">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E183" s="7"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B184" s="2">
-        <v>2450429</v>
+        <v>2295695</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E184">
-        <v>63691075764</v>
+        <v>882936009353</v>
       </c>
       <c r="F184" s="2">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B185" s="2">
-        <v>2225964</v>
+        <v>2295709</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="E185">
+        <v>882936009360</v>
+      </c>
+      <c r="F185" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B186" s="2">
-        <v>90800234</v>
+        <v>2339617</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
-        <v>187</v>
+      <c r="A187" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="B187" s="2">
-        <v>1913484</v>
+        <v>2421186</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E187" s="7">
-        <v>68510020406</v>
+        <v>63691073333</v>
       </c>
       <c r="F187" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+      <c r="A188" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B188" s="2">
-        <v>1913484</v>
+        <v>2463792</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E188">
-        <v>68510020802</v>
+        <v>63691082793</v>
       </c>
       <c r="F188" s="2">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
-        <v>187</v>
+      <c r="A189" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B189" s="2">
-        <v>1913492</v>
+        <v>2463806</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E189">
-        <v>68510021403</v>
+        <v>63691082762</v>
       </c>
       <c r="F189" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
-        <v>188</v>
+      <c r="A190" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B190" s="2">
-        <v>2230584</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>25</v>
+        <v>2496003</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="E190">
-        <v>68510345400</v>
+        <v>63691100329</v>
       </c>
       <c r="F190" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B191" s="2">
-        <v>2230585</v>
+        <v>2450429</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E191">
+        <v>63691075764</v>
+      </c>
+      <c r="F191" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B192" s="2">
-        <v>2238334</v>
+        <v>2225964</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E192">
-        <v>68510899279</v>
-      </c>
-      <c r="F192" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B193" s="2">
-        <v>593435</v>
+        <v>90800234</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E193">
-        <v>64589001490</v>
-      </c>
-      <c r="F193" s="2">
-        <v>100</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>190</v>
+      <c r="A194" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B194" s="2">
-        <v>593451</v>
+        <v>1913484</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E194">
-        <v>64589001575</v>
+        <v>68510020406</v>
       </c>
       <c r="F194" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
-        <v>206</v>
+      <c r="A195" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B195" s="2">
-        <v>2053403</v>
+        <v>1913484</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E195">
-        <v>64589002916</v>
+        <v>68510020802</v>
       </c>
       <c r="F195" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>191</v>
+      <c r="A196" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B196" s="2">
-        <v>2282941</v>
+        <v>1913492</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="E196">
-        <v>68510575128</v>
+        <v>68510021403</v>
       </c>
       <c r="F196" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
-        <v>191</v>
+      <c r="A197" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="B197" s="2">
-        <v>2282968</v>
+        <v>2230584</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="E197">
+        <v>68510345400</v>
+      </c>
+      <c r="F197" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B198" s="2">
-        <v>653241</v>
+        <v>2230585</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E198" s="7">
-        <v>64589000752</v>
-      </c>
-      <c r="F198" s="2">
-        <v>500</v>
-      </c>
+      <c r="E198" s="7"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B199" s="2">
-        <v>653276</v>
+        <v>2453908</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E199">
-        <v>64589001643</v>
+        <v>68510178879</v>
       </c>
       <c r="F199" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B200" s="2">
-        <v>637742</v>
+        <v>2238334</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E200">
+        <v>68510899279</v>
+      </c>
+      <c r="F200" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B201" s="2">
-        <v>637750</v>
+        <v>593435</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E201">
+        <v>64589001490</v>
+      </c>
+      <c r="F201" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B202" s="2">
-        <v>711101</v>
+        <v>593451</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E202" s="7"/>
+      <c r="E202" s="7">
+        <v>64589001575</v>
+      </c>
+      <c r="F202" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B203" s="2">
-        <v>2302764</v>
+        <v>2053403</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E203" s="7">
-        <v>68510801333</v>
+        <v>64589002916</v>
       </c>
       <c r="F203" s="2">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B204" s="2">
-        <v>2302772</v>
+        <v>2282941</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E204">
-        <v>68510802330</v>
+        <v>68510575128</v>
       </c>
       <c r="F204" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B205" s="2">
-        <v>2302780</v>
+        <v>2282968</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E205">
-        <v>771313162838</v>
-      </c>
-      <c r="F205" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B206" s="2">
-        <v>2384884</v>
+        <v>653241</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="E206">
+        <v>64589000752</v>
+      </c>
+      <c r="F206" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B207" s="2">
-        <v>2384892</v>
+        <v>653276</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E207">
-        <v>68510181145</v>
+        <v>64589001643</v>
       </c>
       <c r="F207" s="2">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B208" s="2">
-        <v>2392925</v>
+        <v>637742</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B209" s="2">
-        <v>608165</v>
+        <v>637750</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E209">
-        <v>64589000561</v>
-      </c>
-      <c r="F209" s="2">
-        <v>500</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B210" s="2">
-        <v>808571</v>
+        <v>711101</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>8</v>
@@ -4820,73 +4875,79 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B211" s="2">
-        <v>2163926</v>
+        <v>2302764</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E211">
+        <v>68510801333</v>
+      </c>
+      <c r="F211" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B212" s="2">
-        <v>2322951</v>
+        <v>2302772</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>354092103102</v>
+        <v>68510802330</v>
       </c>
       <c r="F212" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B213" s="2">
-        <v>2322978</v>
+        <v>2302780</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E213">
-        <v>354092105106</v>
+        <v>8</v>
+      </c>
+      <c r="E213" s="9">
+        <v>68510803337</v>
       </c>
       <c r="F213" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B214" s="2">
-        <v>2347156</v>
+        <v>2302780</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>354092102105</v>
+        <v>68510803405</v>
       </c>
       <c r="F214" s="2">
         <v>100</v>
@@ -4894,105 +4955,257 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B215" s="2">
-        <v>2347164</v>
+        <v>2384884</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E215">
-        <v>354092104109</v>
-      </c>
-      <c r="F215" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B216" s="2">
-        <v>2347172</v>
+        <v>2384892</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E216">
-        <v>354092106103</v>
+        <v>68510181145</v>
       </c>
       <c r="F216" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B217" s="2">
-        <v>2439603</v>
+        <v>2392925</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E217" s="7">
-        <v>354092101313</v>
-      </c>
-      <c r="F217" s="2">
-        <v>100</v>
-      </c>
+      <c r="E217" s="7"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B218" s="2">
-        <v>548359</v>
+        <v>608165</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E218" s="7"/>
+      <c r="E218" s="7">
+        <v>64589000561</v>
+      </c>
+      <c r="F218" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B219" s="2">
+        <v>808571</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219" s="7"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B220" s="2">
+        <v>2163926</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B221" s="2">
+        <v>2322951</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E221">
+        <v>354092103102</v>
+      </c>
+      <c r="F221" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B222" s="2">
+        <v>2322978</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E222" s="7">
+        <v>354092105106</v>
+      </c>
+      <c r="F222" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B223" s="2">
+        <v>2347156</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E223">
+        <v>354092102105</v>
+      </c>
+      <c r="F223" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B224" s="2">
+        <v>2347164</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E224">
+        <v>354092104109</v>
+      </c>
+      <c r="F224" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B225" s="2">
+        <v>2347172</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E225">
+        <v>354092106103</v>
+      </c>
+      <c r="F225" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B226" s="2">
+        <v>2439603</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E226">
+        <v>354092101313</v>
+      </c>
+      <c r="F226" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B227" s="2">
+        <v>548359</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B228" s="2">
         <v>548367</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C228" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E219" s="7"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D220" s="1"/>
-      <c r="E220" s="9"/>
+      <c r="D228" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F220">
-    <sortCondition ref="A2:A220"/>
-    <sortCondition ref="B2:B220"/>
-    <sortCondition ref="F2:F220"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F228">
+    <sortCondition ref="A2:A228"/>
+    <sortCondition ref="B2:B228"/>
+    <sortCondition ref="F2:F228"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>